--- a/template.xlsx
+++ b/template.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11114"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24653DA8-1D38-46FB-BB41-A649857B8912}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBC64B1E-0199-964C-A5AF-164A7E4926D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2460" yWindow="2520" windowWidth="25500" windowHeight="13845" tabRatio="919" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2460" yWindow="2520" windowWidth="25500" windowHeight="13840" tabRatio="919" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="管理者マスタ" sheetId="53" r:id="rId1"/>
@@ -133,7 +133,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -312,6 +312,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" shrinkToFit="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -338,9 +341,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,102 +692,102 @@
   <sheetPr>
     <tabColor theme="5"/>
   </sheetPr>
-  <dimension ref="A1:J40"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.125" style="3" customWidth="1"/>
-    <col min="2" max="3" width="28.625" style="3" customWidth="1"/>
-    <col min="4" max="9" width="9.625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="75.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.1640625" style="3" customWidth="1"/>
+    <col min="2" max="3" width="28.6640625" style="3" customWidth="1"/>
+    <col min="4" max="9" width="9.6640625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="75.6640625" style="3" customWidth="1"/>
     <col min="11" max="16384" width="9" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
+      <c r="B1" s="13"/>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="14" t="s">
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="I1" s="14"/>
+      <c r="I1" s="15"/>
       <c r="J1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+    <row r="2" spans="1:10">
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
       <c r="C2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="13"/>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="14" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="14"/>
+      <c r="I2" s="15"/>
       <c r="J2" s="2"/>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:10">
+      <c r="A4" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="16"/>
-      <c r="D4" s="16" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="16" t="s">
+      <c r="E4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="16" t="s">
+      <c r="F4" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="16" t="s">
+      <c r="G4" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="16" t="s">
+      <c r="I4" s="17" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="19" t="s">
+      <c r="J4" s="20" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="15"/>
+    <row r="5" spans="1:10">
+      <c r="A5" s="16"/>
       <c r="B5" s="4" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="18"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="19"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="20"/>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="5">
         <v>1</v>
       </c>
@@ -801,7 +801,7 @@
       <c r="I6" s="7"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="5">
         <v>2</v>
       </c>
@@ -810,12 +810,12 @@
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
       <c r="F7" s="6"/>
-      <c r="G7" s="20"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="7"/>
       <c r="I7" s="7"/>
       <c r="J7" s="8"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -829,7 +829,7 @@
       <c r="I8" s="7"/>
       <c r="J8" s="8"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="5">
         <v>4</v>
       </c>
@@ -843,7 +843,7 @@
       <c r="I9" s="7"/>
       <c r="J9" s="8"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="5">
         <v>5</v>
       </c>
@@ -857,7 +857,7 @@
       <c r="I10" s="7"/>
       <c r="J10" s="8"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="5">
         <v>6</v>
       </c>
@@ -871,7 +871,7 @@
       <c r="I11" s="9"/>
       <c r="J11" s="8"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="5">
         <v>7</v>
       </c>
@@ -885,7 +885,7 @@
       <c r="I12" s="9"/>
       <c r="J12" s="8"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="5">
         <v>8</v>
       </c>
@@ -899,7 +899,7 @@
       <c r="I13" s="9"/>
       <c r="J13" s="8"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="5">
         <v>9</v>
       </c>
@@ -913,7 +913,7 @@
       <c r="I14" s="9"/>
       <c r="J14" s="8"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="5">
         <v>10</v>
       </c>
@@ -927,7 +927,7 @@
       <c r="I15" s="7"/>
       <c r="J15" s="8"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="5">
         <v>11</v>
       </c>
@@ -941,7 +941,7 @@
       <c r="I16" s="9"/>
       <c r="J16" s="8"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="5">
         <v>12</v>
       </c>
@@ -955,7 +955,7 @@
       <c r="I17" s="9"/>
       <c r="J17" s="8"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="5">
         <v>13</v>
       </c>
@@ -969,7 +969,7 @@
       <c r="I18" s="9"/>
       <c r="J18" s="8"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="5">
         <v>14</v>
       </c>
@@ -983,7 +983,7 @@
       <c r="I19" s="7"/>
       <c r="J19" s="8"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="5">
         <v>15</v>
       </c>
@@ -997,7 +997,7 @@
       <c r="I20" s="9"/>
       <c r="J20" s="8"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10">
       <c r="A21" s="5">
         <v>16</v>
       </c>
@@ -1011,7 +1011,7 @@
       <c r="I21" s="9"/>
       <c r="J21" s="8"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="5">
         <v>17</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="I22" s="9"/>
       <c r="J22" s="8"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="A23" s="5">
         <v>18</v>
       </c>
@@ -1039,7 +1039,7 @@
       <c r="I23" s="9"/>
       <c r="J23" s="8"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="A24" s="5">
         <v>19</v>
       </c>
@@ -1053,7 +1053,7 @@
       <c r="I24" s="9"/>
       <c r="J24" s="8"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="A25" s="5">
         <v>20</v>
       </c>
@@ -1067,7 +1067,7 @@
       <c r="I25" s="9"/>
       <c r="J25" s="8"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="A26" s="5">
         <v>21</v>
       </c>
@@ -1081,7 +1081,7 @@
       <c r="I26" s="9"/>
       <c r="J26" s="8"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="A27" s="5">
         <v>22</v>
       </c>
@@ -1095,7 +1095,7 @@
       <c r="I27" s="9"/>
       <c r="J27" s="8"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="A28" s="5">
         <v>23</v>
       </c>
@@ -1109,7 +1109,7 @@
       <c r="I28" s="7"/>
       <c r="J28" s="8"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="A29" s="5">
         <v>24</v>
       </c>
@@ -1123,7 +1123,7 @@
       <c r="I29" s="9"/>
       <c r="J29" s="8"/>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="A30" s="5">
         <v>25</v>
       </c>
@@ -1137,7 +1137,7 @@
       <c r="I30" s="9"/>
       <c r="J30" s="8"/>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="A31" s="5">
         <v>26</v>
       </c>
@@ -1151,7 +1151,7 @@
       <c r="I31" s="9"/>
       <c r="J31" s="8"/>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="A32" s="5">
         <v>27</v>
       </c>
@@ -1165,7 +1165,7 @@
       <c r="I32" s="7"/>
       <c r="J32" s="8"/>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:10">
       <c r="A33" s="5">
         <v>28</v>
       </c>
@@ -1179,7 +1179,7 @@
       <c r="I33" s="7"/>
       <c r="J33" s="8"/>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:10">
       <c r="A34" s="5">
         <v>29</v>
       </c>
@@ -1193,7 +1193,7 @@
       <c r="I34" s="7"/>
       <c r="J34" s="8"/>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10">
       <c r="A35" s="5">
         <v>30</v>
       </c>
@@ -1207,59 +1207,339 @@
       <c r="I35" s="7"/>
       <c r="J35" s="8"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="12" t="s">
+    <row r="36" spans="1:10">
+      <c r="A36" s="5">
+        <v>31</v>
+      </c>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
+      <c r="J36" s="8"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="5">
+        <v>32</v>
+      </c>
+      <c r="B37" s="6"/>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="8"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="5">
+        <v>33</v>
+      </c>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="8"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="5">
+        <v>34</v>
+      </c>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="7"/>
+      <c r="H39" s="7"/>
+      <c r="I39" s="7"/>
+      <c r="J39" s="8"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="5">
+        <v>35</v>
+      </c>
+      <c r="B40" s="6"/>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="7"/>
+      <c r="H40" s="7"/>
+      <c r="I40" s="7"/>
+      <c r="J40" s="8"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="5">
+        <v>36</v>
+      </c>
+      <c r="B41" s="6"/>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="7"/>
+      <c r="H41" s="7"/>
+      <c r="I41" s="7"/>
+      <c r="J41" s="8"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="5">
+        <v>37</v>
+      </c>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="7"/>
+      <c r="H42" s="7"/>
+      <c r="I42" s="7"/>
+      <c r="J42" s="8"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="5">
+        <v>38</v>
+      </c>
+      <c r="B43" s="6"/>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="E43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="7"/>
+      <c r="H43" s="7"/>
+      <c r="I43" s="7"/>
+      <c r="J43" s="8"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="5">
+        <v>39</v>
+      </c>
+      <c r="B44" s="6"/>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="7"/>
+      <c r="H44" s="7"/>
+      <c r="I44" s="7"/>
+      <c r="J44" s="8"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="5">
+        <v>40</v>
+      </c>
+      <c r="B45" s="6"/>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="E45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="7"/>
+      <c r="H45" s="7"/>
+      <c r="I45" s="7"/>
+      <c r="J45" s="8"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="5">
+        <v>41</v>
+      </c>
+      <c r="B46" s="6"/>
+      <c r="C46" s="6"/>
+      <c r="D46" s="6"/>
+      <c r="E46" s="6"/>
+      <c r="F46" s="6"/>
+      <c r="G46" s="7"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
+      <c r="J46" s="8"/>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="5">
+        <v>42</v>
+      </c>
+      <c r="B47" s="6"/>
+      <c r="C47" s="6"/>
+      <c r="D47" s="6"/>
+      <c r="E47" s="6"/>
+      <c r="F47" s="6"/>
+      <c r="G47" s="7"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
+      <c r="J47" s="8"/>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="5">
+        <v>43</v>
+      </c>
+      <c r="B48" s="6"/>
+      <c r="C48" s="6"/>
+      <c r="D48" s="6"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="6"/>
+      <c r="G48" s="7"/>
+      <c r="H48" s="7"/>
+      <c r="I48" s="7"/>
+      <c r="J48" s="8"/>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="5">
+        <v>44</v>
+      </c>
+      <c r="B49" s="6"/>
+      <c r="C49" s="6"/>
+      <c r="D49" s="6"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="6"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="7"/>
+      <c r="I49" s="7"/>
+      <c r="J49" s="8"/>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="5">
+        <v>45</v>
+      </c>
+      <c r="B50" s="6"/>
+      <c r="C50" s="6"/>
+      <c r="D50" s="6"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
+      <c r="G50" s="7"/>
+      <c r="H50" s="7"/>
+      <c r="I50" s="7"/>
+      <c r="J50" s="8"/>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="5">
+        <v>46</v>
+      </c>
+      <c r="B51" s="6"/>
+      <c r="C51" s="6"/>
+      <c r="D51" s="6"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="6"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
+      <c r="J51" s="8"/>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="5">
+        <v>47</v>
+      </c>
+      <c r="B52" s="6"/>
+      <c r="C52" s="6"/>
+      <c r="D52" s="6"/>
+      <c r="E52" s="6"/>
+      <c r="F52" s="6"/>
+      <c r="G52" s="7"/>
+      <c r="H52" s="7"/>
+      <c r="I52" s="7"/>
+      <c r="J52" s="8"/>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="5">
+        <v>48</v>
+      </c>
+      <c r="B53" s="6"/>
+      <c r="C53" s="6"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="6"/>
+      <c r="F53" s="6"/>
+      <c r="G53" s="7"/>
+      <c r="H53" s="7"/>
+      <c r="I53" s="7"/>
+      <c r="J53" s="8"/>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="5">
+        <v>49</v>
+      </c>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="6"/>
+      <c r="G54" s="7"/>
+      <c r="H54" s="7"/>
+      <c r="I54" s="7"/>
+      <c r="J54" s="8"/>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="5">
+        <v>50</v>
+      </c>
+      <c r="B55" s="6"/>
+      <c r="C55" s="6"/>
+      <c r="D55" s="6"/>
+      <c r="E55" s="6"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="7"/>
+      <c r="H55" s="7"/>
+      <c r="I55" s="7"/>
+      <c r="J55" s="8"/>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B37" s="12"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="12"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="12"/>
-      <c r="G37" s="12"/>
-      <c r="H37" s="12"/>
-      <c r="I37" s="12"/>
-      <c r="J37" s="12"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="11"/>
-      <c r="B38" s="11"/>
-      <c r="C38" s="11"/>
-      <c r="D38" s="11"/>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="11"/>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11"/>
-      <c r="J38" s="11"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="11"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="11"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="11"/>
-      <c r="B40" s="11"/>
-      <c r="C40" s="11"/>
-      <c r="D40" s="11"/>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="11"/>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="B57" s="13"/>
+      <c r="C57" s="13"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="13"/>
+      <c r="F57" s="13"/>
+      <c r="G57" s="13"/>
+      <c r="H57" s="13"/>
+      <c r="I57" s="13"/>
+      <c r="J57" s="13"/>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="12"/>
+      <c r="B58" s="12"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="12"/>
+      <c r="B59" s="12"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="12"/>
+      <c r="B60" s="12"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A38:J40"/>
+    <mergeCell ref="A58:J60"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="D1:G1"/>
     <mergeCell ref="H1:I1"/>
@@ -1274,7 +1554,7 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="A37:J37"/>
+    <mergeCell ref="A57:J57"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
